--- a/Carpeta de Estudio/E27/Repo1/Patrones de diseño-E27.xlsx
+++ b/Carpeta de Estudio/E27/Repo1/Patrones de diseño-E27.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\OneDrive\Documentos\Repositorios\E27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E27\Repo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C8CE8E-2BAD-46D3-922B-CB2144E85D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -51,9 +52,6 @@
   </si>
   <si>
     <t>Strategy</t>
-  </si>
-  <si>
-    <t>Command</t>
   </si>
   <si>
     <t>Composite</t>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,21 +475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -516,16 +514,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -533,16 +531,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,24 +548,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -575,7 +569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
